--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_1.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_0</t>
+          <t>model_9_1_23</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7781159023754882</v>
+        <v>0.08636133185833772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7766202700881997</v>
+        <v>-0.3525509537251839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5150306672802015</v>
+        <v>-4.093905486246685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6484651112425672</v>
+        <v>-1.540784943869661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2455603033304214</v>
+        <v>1.011128783226013</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2360484004020691</v>
+        <v>1.268031477928162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6064897775650024</v>
+        <v>5.086646556854248</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4103738069534302</v>
+        <v>3.065027236938477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_1</t>
+          <t>model_9_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7841133724384761</v>
+        <v>0.1060899788836089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.785455456229102</v>
+        <v>-0.3138123153766257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5172989867244598</v>
+        <v>-3.968876390846575</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6538427173050161</v>
+        <v>-1.476140228037995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2389228790998459</v>
+        <v>0.9892950057983398</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2267121225595474</v>
+        <v>1.231713652610779</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6036530733108521</v>
+        <v>4.961795806884766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4040961265563965</v>
+        <v>2.987044095993042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_2</t>
+          <t>model_9_1_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7891253603221697</v>
+        <v>0.1129634200882964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7909678748094673</v>
+        <v>-0.3421925102397121</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5178928187562974</v>
+        <v>-3.872997361972358</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6567838294074375</v>
+        <v>-1.450470072272106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2333761006593704</v>
+        <v>0.9816880226135254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2208870947360992</v>
+        <v>1.258320331573486</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6029104590415955</v>
+        <v>4.866053581237793</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4006627202033997</v>
+        <v>2.956077575683594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_3</t>
+          <t>model_9_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7941238229816058</v>
+        <v>0.1201266205805493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7976124763480921</v>
+        <v>-0.3303032044201244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5172771140082467</v>
+        <v>-3.828312193905566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6596576113145569</v>
+        <v>-1.428170942948769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2278442680835724</v>
+        <v>0.9737604856491089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.213865652680397</v>
+        <v>1.24717378616333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.603680431842804</v>
+        <v>4.821431636810303</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3973079919815063</v>
+        <v>2.929177284240723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_4</t>
+          <t>model_9_1_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7987980229405016</v>
+        <v>0.1302341091797119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8032100807403783</v>
+        <v>-0.3020273159026903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5148567815984901</v>
+        <v>-3.777911964529959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6611199281458748</v>
+        <v>-1.396904295119169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2226713001728058</v>
+        <v>0.9625745415687561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2079505920410156</v>
+        <v>1.220664978027344</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6067072749137878</v>
+        <v>4.771103382110596</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3956008851528168</v>
+        <v>2.891459465026855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_5</t>
+          <t>model_9_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8032963630673021</v>
+        <v>0.1458310268250544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.809670955069559</v>
+        <v>-0.2621672434136835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.509316572853836</v>
+        <v>-3.697763136843732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6614231905295729</v>
+        <v>-1.349283211603367</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2176929712295532</v>
+        <v>0.9453133344650269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2011232972145081</v>
+        <v>1.183295726776123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6136356592178345</v>
+        <v>4.691068649291992</v>
       </c>
       <c r="I7" t="n">
-        <v>0.395246833562851</v>
+        <v>2.834012508392334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_6</t>
+          <t>model_9_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8070714090678377</v>
+        <v>0.1976626377650654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8150048417359825</v>
+        <v>0.1020939470163857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5021336246840314</v>
+        <v>-3.677544458248595</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6603580469092554</v>
+        <v>-1.191540544976411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2135150730609894</v>
+        <v>0.8879510164260864</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1954869031906128</v>
+        <v>0.841796875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6226184964179993</v>
+        <v>4.670878887176514</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3964902758598328</v>
+        <v>2.643723011016846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_7</t>
+          <t>model_9_1_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.810532266960708</v>
+        <v>0.3018288805323057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8200129700906771</v>
+        <v>0.6135872599225978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4952118059254909</v>
+        <v>-3.405223518211733</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6592686947712691</v>
+        <v>-0.875008436344245</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2096849530935287</v>
+        <v>0.7726697325706482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1901947408914566</v>
+        <v>0.3622662127017975</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6312747597694397</v>
+        <v>4.398945808410645</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3977620005607605</v>
+        <v>2.26188063621521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_8</t>
+          <t>model_9_1_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8137088440653684</v>
+        <v>0.3469832922160264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823309906325282</v>
+        <v>0.6221419444280171</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4895059325456129</v>
+        <v>-3.053916116114168</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6579721770587144</v>
+        <v>-0.7346390568067662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2061693966388702</v>
+        <v>0.7226970791816711</v>
       </c>
       <c r="G10" t="n">
-        <v>0.186710849404335</v>
+        <v>0.3542461097240448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6384103894233704</v>
+        <v>4.048139095306396</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3992754817008972</v>
+        <v>2.092548370361328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_9</t>
+          <t>model_9_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8163360709516582</v>
+        <v>0.3654764275295174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8253336501789346</v>
+        <v>0.5778903049688469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4827723211505429</v>
+        <v>-2.856898957032618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6555479820806649</v>
+        <v>-0.6760993977973424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2032618522644043</v>
+        <v>0.7022305727005005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1845723241567612</v>
+        <v>0.3957325220108032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6468311548233032</v>
+        <v>3.851402759552002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4021054208278656</v>
+        <v>2.02193021774292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_10</t>
+          <t>model_9_1_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8186391623688447</v>
+        <v>0.3702726609022364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8264718070158303</v>
+        <v>0.5003217078588784</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4759237528655449</v>
+        <v>-2.716286527299975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6526400154106382</v>
+        <v>-0.6532397590358159</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2007130086421967</v>
+        <v>0.6969226002693176</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1833696067333221</v>
+        <v>0.4684538841247559</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6553958654403687</v>
+        <v>3.71099066734314</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4055001437664032</v>
+        <v>1.994353771209717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_11</t>
+          <t>model_9_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8205458308565309</v>
+        <v>0.3708915448956226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8267368893048634</v>
+        <v>0.5646305062969917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4687706092583007</v>
+        <v>-2.799782382332491</v>
       </c>
       <c r="E13" t="n">
-        <v>0.649161823683422</v>
+        <v>-0.6593056015267202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1986028850078583</v>
+        <v>0.6962376236915588</v>
       </c>
       <c r="G13" t="n">
-        <v>0.183089479804039</v>
+        <v>0.4081636965274811</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6643414497375488</v>
+        <v>3.794367551803589</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4095604717731476</v>
+        <v>2.001671552658081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_24</t>
+          <t>model_9_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8213927523779589</v>
+        <v>0.3741886414446604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7965632621454103</v>
+        <v>0.5622628173183266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3301775321897389</v>
+        <v>-2.769544985536293</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5648325472339402</v>
+        <v>-0.6485008989233352</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1976655870676041</v>
+        <v>0.692588746547699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2149743586778641</v>
+        <v>0.4103834331035614</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8376621603965759</v>
+        <v>3.76417350769043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5080046057701111</v>
+        <v>1.988637328147888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_12</t>
+          <t>model_9_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8221049926882731</v>
+        <v>0.3751661924355165</v>
       </c>
       <c r="C15" t="n">
-        <v>0.826668854768485</v>
+        <v>0.5586939113433826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4607972825800609</v>
+        <v>-2.752904630206094</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6451100402153214</v>
+        <v>-0.6434868588391796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1968773454427719</v>
+        <v>0.6915069222450256</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1831613928079605</v>
+        <v>0.413729339838028</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6743125915527344</v>
+        <v>3.747556924819946</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4142904877662659</v>
+        <v>1.982588648796082</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_23</t>
+          <t>model_9_1_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8224562771490366</v>
+        <v>0.3758764504027238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8017159019341736</v>
+        <v>0.5639893396346256</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3414561149887306</v>
+        <v>-2.75572327735555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5729896584997547</v>
+        <v>-0.6424061881864607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1964885890483856</v>
+        <v>0.6907208561897278</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2095295190811157</v>
+        <v>0.4087648093700409</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8235574960708618</v>
+        <v>3.750371217727661</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4984821975231171</v>
+        <v>1.981285095214844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_13</t>
+          <t>model_9_1_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8232231009558478</v>
+        <v>0.4177313757030275</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8266488698807295</v>
+        <v>0.6635831983334229</v>
       </c>
       <c r="D17" t="n">
-        <v>0.45130146375043</v>
+        <v>-2.501775029253346</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6403122858107579</v>
+        <v>-0.5025068348768555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1956399530172348</v>
+        <v>0.6443997621536255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1831825077533722</v>
+        <v>0.3153944909572601</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6861878037452698</v>
+        <v>3.496785163879395</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4198912382125854</v>
+        <v>1.812520265579224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_22</t>
+          <t>model_9_1_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.823348002762243</v>
+        <v>0.4291419577586616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8065494053246905</v>
+        <v>0.7047443793887194</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3527575644908743</v>
+        <v>-2.431668380783159</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5810022829411268</v>
+        <v>-0.4582612808440769</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1955017000436783</v>
+        <v>0.6317716240882874</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2044218927621841</v>
+        <v>0.2768054306507111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8094242215156555</v>
+        <v>3.426778316497803</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4891283810138702</v>
+        <v>1.759145379066467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_21</t>
+          <t>model_9_1_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8241110966669168</v>
+        <v>0.4350130275806344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8108392410619636</v>
+        <v>0.7231283338741678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3642168686884778</v>
+        <v>-2.369046674237544</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5888338862768796</v>
+        <v>-0.4263034141046473</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1946571916341782</v>
+        <v>0.625274121761322</v>
       </c>
       <c r="G19" t="n">
-        <v>0.199888750910759</v>
+        <v>0.2595702409744263</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7950935363769531</v>
+        <v>3.364245891571045</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4799859523773193</v>
+        <v>1.720593571662903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_14</t>
+          <t>model_9_1_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8242559122787961</v>
+        <v>0.4524559288649399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8266960778383162</v>
+        <v>-0.393361507491053</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4420865610685576</v>
+        <v>-1.443112217113581</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6356898280778214</v>
+        <v>-0.5249776675879214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1944969147443771</v>
+        <v>0.6059699058532715</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1831326186656952</v>
+        <v>1.306291937828064</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6977117657661438</v>
+        <v>2.43963098526001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4252873957157135</v>
+        <v>1.839627504348755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_15</t>
+          <t>model_9_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8245945801964378</v>
+        <v>0.4566363517473746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8252187612040944</v>
+        <v>0.7479433297963354</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4313287864194608</v>
+        <v>-2.187236408022287</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6295581852602123</v>
+        <v>-0.3452711831059074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1941221058368683</v>
+        <v>0.6013435125350952</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1846937239170074</v>
+        <v>0.2363059222698212</v>
       </c>
       <c r="H21" t="n">
-        <v>0.711165189743042</v>
+        <v>3.182694673538208</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4324453175067902</v>
+        <v>1.622841954231262</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_20</t>
+          <t>model_9_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8247057725915825</v>
+        <v>0.5234496583640256</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8148928455288135</v>
+        <v>0.7537631714456523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3759539990193291</v>
+        <v>-1.607799699708335</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5966948210647762</v>
+        <v>-0.1171612382495146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1939990520477295</v>
+        <v>0.52740079164505</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1956052482128143</v>
+        <v>0.2308497428894043</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7804153561592102</v>
+        <v>2.60408353805542</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4708093106746674</v>
+        <v>1.347666025161743</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_19</t>
+          <t>model_9_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8249214589940075</v>
+        <v>0.6272394327627293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8177662983451297</v>
+        <v>0.7538633124691958</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3869160933493239</v>
+        <v>-0.7305262825476537</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6036005073605528</v>
+        <v>0.2246155856860548</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1937603652477264</v>
+        <v>0.412536084651947</v>
       </c>
       <c r="G23" t="n">
-        <v>0.192568838596344</v>
+        <v>0.2307558655738831</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7667064666748047</v>
+        <v>1.728060245513916</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4627477526664734</v>
+        <v>0.9353700876235962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_18</t>
+          <t>model_9_1_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8250747037820104</v>
+        <v>0.6366181101798176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8206731671164482</v>
+        <v>0.7676233475124017</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3978877003753067</v>
+        <v>-0.4884726107533832</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6105217642368014</v>
+        <v>0.324567738887438</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1935907602310181</v>
+        <v>0.40215665102005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.189497098326683</v>
+        <v>0.21785569190979</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7529856562614441</v>
+        <v>1.486351609230042</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4546679854393005</v>
+        <v>0.8147947788238525</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_16</t>
+          <t>model_9_1_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8251645074473146</v>
+        <v>0.6385624802504575</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8243850081494023</v>
+        <v>0.7751767869358352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4211037550070532</v>
+        <v>-0.6023925339513891</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6240033539417238</v>
+        <v>0.2832986512887367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1934913843870163</v>
+        <v>0.4000048041343689</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1855747699737549</v>
+        <v>0.2107742428779602</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7239522933959961</v>
+        <v>1.600109219551086</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4389299154281616</v>
+        <v>0.864578902721405</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_1_17</t>
+          <t>model_9_1_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8252822530489298</v>
+        <v>0.6441613477637607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8228042298151154</v>
+        <v>0.7708556754108795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4097920945318461</v>
+        <v>-0.590211714653214</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6175434071854513</v>
+        <v>0.2862656231255031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1933610439300537</v>
+        <v>0.393808513879776</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1872451901435852</v>
+        <v>0.2148253321647644</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7380983233451843</v>
+        <v>1.587945699691772</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4464711248874664</v>
+        <v>0.8609997034072876</v>
       </c>
     </row>
   </sheetData>
